--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>Day57</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -570,11 +573,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,6 +677,21 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44415</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Day57</t>
+  </si>
+  <si>
+    <t>Day58</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +548,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -573,11 +576,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -697,6 +700,21 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -62,24 +62,12 @@
     <t>Day45</t>
   </si>
   <si>
-    <t>13/6/2021notcode</t>
-  </si>
-  <si>
     <t>Day47</t>
   </si>
   <si>
-    <t>22/6/2021nodecode</t>
-  </si>
-  <si>
     <t>Day50</t>
   </si>
   <si>
-    <t>22//2021</t>
-  </si>
-  <si>
-    <t>25/6/2021notcode</t>
-  </si>
-  <si>
     <t>Day52</t>
   </si>
   <si>
@@ -105,6 +93,18 @@
   </si>
   <si>
     <t>Day58</t>
+  </si>
+  <si>
+    <t>22/6/2021</t>
+  </si>
+  <si>
+    <t>13/6/2021</t>
+  </si>
+  <si>
+    <t>do-naught</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -432,14 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
@@ -487,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -519,7 +521,7 @@
         <v>88</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -548,7 +550,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -556,11 +558,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -568,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <f>SUM(J3,J4)</f>
@@ -576,22 +581,25 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -602,16 +610,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -622,16 +630,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -642,16 +650,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -662,13 +670,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -679,7 +690,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>44415</v>
@@ -688,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -699,16 +710,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>44446</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -719,22 +730,42 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44537</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
+      <c r="B14" s="1">
+        <v>44537</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>13/7/2021</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
         <v>88</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -550,7 +553,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -581,11 +584,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -766,6 +769,46 @@
       </c>
       <c r="F14">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>13/7/2021</t>
+  </si>
+  <si>
+    <t>16/7/2021</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -584,11 +587,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -809,6 +812,26 @@
       </c>
       <c r="F16">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>16/7/2021</t>
+  </si>
+  <si>
+    <t>24/7/2021</t>
+  </si>
+  <si>
+    <t>Day63</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +562,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -587,11 +593,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,6 +838,26 @@
       </c>
       <c r="F17">
         <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Day63</t>
+  </si>
+  <si>
+    <t>27/7/2021</t>
+  </si>
+  <si>
+    <t>Day64</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +539,7 @@
         <v>88</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -562,7 +568,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -593,11 +599,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>397</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,6 +863,46 @@
         <v>8</v>
       </c>
       <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Day64</t>
+  </si>
+  <si>
+    <t>29/7/2021</t>
+  </si>
+  <si>
+    <t>Day65</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +574,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -599,11 +605,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -903,6 +909,26 @@
         <v>9</v>
       </c>
       <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Day65</t>
+  </si>
+  <si>
+    <t>31/7/2021</t>
+  </si>
+  <si>
+    <t>Day66</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +551,7 @@
         <v>88</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -574,7 +580,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -605,11 +611,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -929,6 +935,46 @@
         <v>8</v>
       </c>
       <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Day66</t>
+  </si>
+  <si>
+    <t>Day69</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="A1:XFD1048576"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +583,7 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -611,11 +614,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -975,6 +978,26 @@
         <v>9</v>
       </c>
       <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44385</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -71,18 +74,12 @@
     <t>Day52</t>
   </si>
   <si>
-    <t>25/6/2021</t>
-  </si>
-  <si>
     <t>Tiền trước nghỉ hè</t>
   </si>
   <si>
     <t>Tiền trong hè</t>
   </si>
   <si>
-    <t>21/6/2021</t>
-  </si>
-  <si>
     <t>late QS</t>
   </si>
   <si>
@@ -95,49 +92,28 @@
     <t>Day58</t>
   </si>
   <si>
-    <t>22/6/2021</t>
-  </si>
-  <si>
-    <t>13/6/2021</t>
-  </si>
-  <si>
     <t>do-naught</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>13/7/2021</t>
-  </si>
-  <si>
-    <t>16/7/2021</t>
-  </si>
-  <si>
-    <t>24/7/2021</t>
-  </si>
-  <si>
     <t>Day63</t>
   </si>
   <si>
-    <t>27/7/2021</t>
-  </si>
-  <si>
     <t>Day64</t>
   </si>
   <si>
-    <t>29/7/2021</t>
-  </si>
-  <si>
     <t>Day65</t>
   </si>
   <si>
-    <t>31/7/2021</t>
-  </si>
-  <si>
     <t>Day66</t>
   </si>
   <si>
     <t>Day69</t>
+  </si>
+  <si>
+    <t>Day70</t>
   </si>
 </sst>
 </file>
@@ -181,10 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
@@ -483,7 +460,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -504,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44383</v>
+        <v>44354</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -522,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -533,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44383</v>
+        <v>44354</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -554,6 +531,7 @@
         <v>88</v>
       </c>
       <c r="K3">
+        <f>SUMIF(E:E,I3,F:F)</f>
         <v>84</v>
       </c>
     </row>
@@ -562,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44445</v>
+        <v>44356</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -583,15 +561,16 @@
         <v>107</v>
       </c>
       <c r="K4">
-        <v>178</v>
+        <f>SUMIF(E:E,I4,F:F)</f>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="B5" s="1">
+        <v>44360</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -606,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <f>SUM(J3,J4)</f>
@@ -614,22 +593,22 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="B6" s="1">
+        <v>44368</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -645,8 +624,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="B7" s="1">
+        <v>44369</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -665,8 +644,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
+      <c r="B8" s="1">
+        <v>44369</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -685,8 +664,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="B9" s="1">
+        <v>44372</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -705,8 +684,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B10" s="1">
+        <v>44372</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -726,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44415</v>
+        <v>44385</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -746,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44446</v>
+        <v>44386</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -766,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44537</v>
+        <v>44389</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -786,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44537</v>
+        <v>44389</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -805,14 +784,14 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
+      <c r="B15" s="1">
+        <v>44390</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -825,14 +804,14 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
+      <c r="B16" s="1">
+        <v>44390</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -845,14 +824,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
+      <c r="B17" s="1">
+        <v>44393</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -865,14 +844,14 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
+      <c r="B18" s="1">
+        <v>44401</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -885,14 +864,14 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
+      <c r="B19" s="1">
+        <v>44404</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -905,14 +884,14 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
+      <c r="B20" s="1">
+        <v>44404</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -925,14 +904,14 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
+      <c r="B21" s="1">
+        <v>44406</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -945,14 +924,14 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
+      <c r="B22" s="1">
+        <v>44408</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -965,14 +944,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
+      <c r="B23" s="1">
+        <v>44408</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -986,18 +965,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44385</v>
+        <v>44415</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44418</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Day70</t>
+  </si>
+  <si>
+    <t>Day72</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +535,7 @@
       </c>
       <c r="K3">
         <f>SUMIF(E:E,I3,F:F)</f>
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -562,7 +565,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -593,11 +596,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -997,6 +1000,46 @@
         <v>8</v>
       </c>
       <c r="F25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44422</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44422</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Day72</t>
+  </si>
+  <si>
+    <t>not-question</t>
+  </si>
+  <si>
+    <t>TA80</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +571,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -596,11 +602,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1040,6 +1046,26 @@
         <v>9</v>
       </c>
       <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44424</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>TA80</t>
+  </si>
+  <si>
+    <t>Day74</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +544,7 @@
       </c>
       <c r="K3">
         <f>SUMIF(E:E,I3,F:F)</f>
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -571,7 +574,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -602,11 +605,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>497</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,6 +1069,46 @@
         <v>8</v>
       </c>
       <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44426</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44426</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Day74</t>
+  </si>
+  <si>
+    <t>Day75</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +577,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -605,11 +608,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1077,7 +1080,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1097,7 +1100,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1109,6 +1112,26 @@
         <v>9</v>
       </c>
       <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44429</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Day75</t>
+  </si>
+  <si>
+    <t>Day76</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +550,7 @@
       </c>
       <c r="K3">
         <f>SUMIF(E:E,I3,F:F)</f>
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -577,7 +580,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,11 +611,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>527</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1132,6 +1135,46 @@
         <v>8</v>
       </c>
       <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44432</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Day76</t>
+  </si>
+  <si>
+    <t>Day78</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +553,7 @@
       </c>
       <c r="K3">
         <f>SUMIF(E:E,I3,F:F)</f>
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -580,7 +583,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -611,11 +614,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>547</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1175,6 +1178,46 @@
         <v>9</v>
       </c>
       <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
     </row>

--- a/codeDaily/TienPhat.xlsx
+++ b/codeDaily/TienPhat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Day78</t>
+  </si>
+  <si>
+    <t>Day79</t>
+  </si>
+  <si>
+    <t>Day80</t>
+  </si>
+  <si>
+    <t>Day81</t>
+  </si>
+  <si>
+    <t>Thăng</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +595,7 @@
       </c>
       <c r="K4">
         <f>SUMIF(E:E,I4,F:F)</f>
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -614,11 +626,11 @@
       </c>
       <c r="K5">
         <f>SUM(K3+K4)</f>
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L5">
         <f>SUM(J5+K5)</f>
-        <v>567</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1218,6 +1230,66 @@
         <v>9</v>
       </c>
       <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44440</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44447</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44447</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38">
         <v>10</v>
       </c>
     </row>
